--- a/Power/PowerLite.xlsx
+++ b/Power/PowerLite.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\LEDCeliling\Power\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB991E0E-64B5-4CD7-A816-A462D2BCF78A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B9A0EF-3D11-42D5-A2B9-4BC61B57C29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
   <si>
     <t>Source:</t>
   </si>
@@ -200,12 +211,16 @@
   </si>
   <si>
     <t>1component:SOIC-8-1EP_3.9x4.9mm_P1.27mm_EP2.95x4.9mm_Mask2.71x3.4mm_ThermalVias</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0805_2012Metric</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1153,10 +1168,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1237,7 +1254,7 @@
         <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="F13" t="s">
         <v>19</v>

--- a/Power/PowerLite.xlsx
+++ b/Power/PowerLite.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\LEDCeliling\Power\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B9A0EF-3D11-42D5-A2B9-4BC61B57C29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93092891-34E0-4AAC-8B44-845DD6E503B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="PowerLiteCounts">20</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,31 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
-  <si>
-    <t>Source:</t>
-  </si>
-  <si>
-    <t>D:\work\LEDCeliling\Power\Power.kicad_sch</t>
-  </si>
-  <si>
-    <t>Date:</t>
-  </si>
-  <si>
-    <t>Tool:</t>
-  </si>
-  <si>
-    <t>Eeschema (6.0.7)</t>
-  </si>
-  <si>
-    <t>Generator:</t>
-  </si>
-  <si>
-    <t>C:\Program Files\KiCad\6.0\bin\scripting\plugins/bom_csv_grouped_by_value_with_fp.py</t>
-  </si>
-  <si>
-    <t>Component Count:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>Ref</t>
   </si>
@@ -66,33 +45,18 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Cmp name</t>
-  </si>
-  <si>
     <t>Footprint</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Vendor</t>
-  </si>
-  <si>
     <t xml:space="preserve">C5, C6, </t>
   </si>
   <si>
     <t>10u</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>Capacitor_SMD:C_0805_2012Metric</t>
   </si>
   <si>
-    <t>Unpolarized capacitor</t>
-  </si>
-  <si>
     <t xml:space="preserve">C7, C10, </t>
   </si>
   <si>
@@ -120,9 +84,6 @@
     <t>LED_SMD:LED_0805_2012Metric</t>
   </si>
   <si>
-    <t>Light emitting diode</t>
-  </si>
-  <si>
     <t xml:space="preserve">DC1, DC2, </t>
   </si>
   <si>
@@ -141,9 +102,6 @@
     <t>1component:GndConnect</t>
   </si>
   <si>
-    <t>Generic connector, single row, 01x01, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
     <t xml:space="preserve">J2, </t>
   </si>
   <si>
@@ -153,39 +111,24 @@
     <t>1component:VH3.96 4P SMT</t>
   </si>
   <si>
-    <t>Generic connector, single row, 01x04, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
     <t xml:space="preserve">L2, </t>
   </si>
   <si>
     <t>15u</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
     <t>1component:IND-SMD_L7.5-W6.6</t>
   </si>
   <si>
-    <t>Inductor</t>
-  </si>
-  <si>
     <t xml:space="preserve">R6, </t>
   </si>
   <si>
     <t>100k</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>Resistor_SMD:R_0805_2012Metric</t>
   </si>
   <si>
-    <t>Resistor</t>
-  </si>
-  <si>
     <t xml:space="preserve">R8, </t>
   </si>
   <si>
@@ -214,6 +157,10 @@
   </si>
   <si>
     <t>Capacitor_SMD:C_0805_2012Metric</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -221,7 +168,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -807,11 +754,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1169,353 +1113,292 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <f>B2*PowerLiteCounts</f>
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>44990.134212962963</v>
+      <c r="C3">
+        <f t="shared" ref="C3:C15" si="0">B3*PowerLiteCounts</f>
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B9">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
+        <v>28</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" t="s">
         <v>39</v>
-      </c>
-      <c r="F27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" t="s">
-        <v>49</v>
-      </c>
-      <c r="F33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>54</v>
-      </c>
-      <c r="D35" t="s">
-        <v>48</v>
-      </c>
-      <c r="E35" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" t="s">
-        <v>49</v>
-      </c>
-      <c r="F37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>